--- a/metrics_analysis.xlsx
+++ b/metrics_analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>air_cargo_p1</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>air_cargo_p3</t>
+  </si>
+  <si>
+    <t>astar_search h_pg_levelsum</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +479,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -703,11 +706,27 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1.3241006240714299</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -935,10 +954,27 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <v>86</v>
+      </c>
+      <c r="D22" s="6">
+        <v>88</v>
+      </c>
+      <c r="E22" s="6">
+        <v>841</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>131.730040770024</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -1154,6 +1190,29 @@
       </c>
       <c r="G32">
         <v>18.552395478822199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6">
+        <v>189</v>
+      </c>
+      <c r="D33" s="6">
+        <v>191</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1683</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>406.36288959905499</v>
       </c>
     </row>
   </sheetData>
